--- a/pcb-references/power/power-audit.xlsx
+++ b/pcb-references/power/power-audit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/pcb-references/power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FA2F99-1066-1341-A0C6-D300C05903DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2FD32-1CFC-F349-BF09-3BBEEABB9D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{E1813CF9-30FE-564F-B61F-73D4682946C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t xml:space="preserve">Mode </t>
   </si>
@@ -110,9 +110,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Power Audit</t>
-  </si>
-  <si>
     <t>Standard LED</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t xml:space="preserve">Max Draw </t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>min.R 75Mb/s,minW 50Mb/s PN:MMRD4</t>
-  </si>
-  <si>
     <t>LDO losses</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
   </si>
   <si>
     <t>One Weeks Losses [mAh]</t>
-  </si>
-  <si>
-    <t>ESP32 Light Sleep</t>
   </si>
   <si>
     <t>Total</t>
@@ -181,19 +169,12 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +190,17 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -237,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -260,17 +252,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,32 +332,168 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -315,6 +504,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67DA4D-9B7C-2141-8218-9001D1BC839B}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C24" xr:uid="{6D67DA4D-9B7C-2141-8218-9001D1BC839B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8818C8E5-D83F-144A-A2D5-B7C50ED5C356}" name="Device" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C20CEE37-3DF3-9246-9DA3-CC3F6C95301E}" name="Mode " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0FBBF1CB-4A6C-B845-B5EE-2A655A4B20E7}" name="Current Draw [mA]" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,7 +838,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,282 +853,272 @@
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <f>C11*0.02</f>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C12*0.02</f>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9">
+        <f>SUM(C13,C8,C18,C20)</f>
+        <v>0.6512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="16">
+        <f>SUM(C17,C11,C2,C19)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>355</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>97</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21.8</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>47.3</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>81.3</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>118</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2">
-        <f>C13*0.02</f>
-        <v>2.36</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <f>C14*0.02</f>
-        <v>0.106</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2">
-        <v>80</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="10">
-        <f>SUM(C15,C10,C20,C22)</f>
-        <v>0.6512</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2">
-        <f>SUM(C19,C13,C4,C21)</f>
-        <v>653</v>
-      </c>
-      <c r="D26" s="2"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="9" t="s">
-        <v>38</v>
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2">
+        <f>3.7*2</f>
+        <v>7.4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -935,28 +1126,30 @@
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
+      <c r="B30" s="2">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6.512E-4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>3.3</v>
+        <f>(B29-B28)*B30</f>
+        <v>2.4313000000000002</v>
       </c>
       <c r="C31" s="2">
-        <v>3.3</v>
+        <f>(C29-C28)*C30</f>
+        <v>2.6699200000000005E-3</v>
       </c>
       <c r="D31" s="4">
         <v>0.5</v>
@@ -970,12 +1163,13 @@
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2">
-        <f>3.7*2</f>
-        <v>7.4</v>
-      </c>
-      <c r="C32" s="2">
-        <v>7.4</v>
+      <c r="B32" s="6">
+        <f>B31/B28</f>
+        <v>0.73675757575757583</v>
+      </c>
+      <c r="C32" s="7">
+        <f>C31/C28</f>
+        <v>8.0906666666666685E-4</v>
       </c>
       <c r="D32" s="4">
         <v>0.75</v>
@@ -987,13 +1181,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
-        <v>0.59299999999999997</v>
+        <v>737</v>
       </c>
       <c r="C33" s="2">
-        <v>6.512E-4</v>
+        <v>0.81</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1004,17 +1198,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2">
-        <f>(B32-B31)*B33</f>
-        <v>2.4313000000000002</v>
-      </c>
-      <c r="C34" s="2">
-        <f>(C32-C31)*C33</f>
-        <v>2.6699200000000005E-3</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="4">
         <v>2</v>
       </c>
@@ -1024,17 +1210,6 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="7">
-        <f>B34/B31</f>
-        <v>0.73675757575757583</v>
-      </c>
-      <c r="C35" s="8">
-        <f>C34/C31</f>
-        <v>8.0906666666666685E-4</v>
-      </c>
       <c r="D35" s="4">
         <v>3</v>
       </c>
@@ -1044,15 +1219,6 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2">
-        <v>737</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.81</v>
-      </c>
       <c r="D36" s="4">
         <v>4</v>
       </c>
@@ -1062,9 +1228,6 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="4">
         <v>5</v>
       </c>
@@ -1075,5 +1238,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>